--- a/biology/Médecine/Syndrome_d'Ellis-Van_Creveld/Syndrome_d'Ellis-Van_Creveld.xlsx
+++ b/biology/Médecine/Syndrome_d'Ellis-Van_Creveld/Syndrome_d'Ellis-Van_Creveld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Ellis-Van_Creveld</t>
+          <t>Syndrome_d'Ellis-Van_Creveld</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome d'Ellis Van Creveld (EVC) est un syndrome qui associe cliniquement un nanisme dysharmonieux atteignant surtout les jambes et les avant-bras, la présence de plus de cinq doigts, des anomalies des ongles et des dents ainsi qu'une malformation cardiaque souvent de type canal atrio-ventriculaire ou oreillette unique.
 Les anciens termes dysplasie chondro-ectodermique ou dysplasie mésoectodermique ne reflètent pas la totalité des organes atteints par la mutation du gène EVC.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Ellis-Van_Creveld</t>
+          <t>Syndrome_d'Ellis-Van_Creveld</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Incidence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Atteint les deux sexes.
 L'incidence est d'environ 1 sur 60 000 naissances.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Ellis-Van_Creveld</t>
+          <t>Syndrome_d'Ellis-Van_Creveld</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mutation du gène EVC du chromosome 4.</t>
         </is>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Ellis-Van_Creveld</t>
+          <t>Syndrome_d'Ellis-Van_Creveld</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Nanisme évident à la naissance, les adultes mesurant entre 109 et 153 centimètres.
 Le crâne est normal. Il existe des anomalies des dents ou des gencives. Le thorax est étroit.
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Ellis-Van_Creveld</t>
+          <t>Syndrome_d'Ellis-Van_Creveld</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les principaux diagnostics différentiels sont :
 Syndrome de Jeune
@@ -630,7 +650,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Ellis-Van_Creveld</t>
+          <t>Syndrome_d'Ellis-Van_Creveld</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,7 +668,9 @@
           <t>Diagnostic anténatal</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La suspicion de dysplasie osseuse est possible sur la biométrie fœtale et en cas de constatation de malformations cardiaques avec polydactylie.
 </t>
@@ -661,7 +683,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Ellis-Van_Creveld</t>
+          <t>Syndrome_d'Ellis-Van_Creveld</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -679,7 +701,9 @@
           <t>Conseil génétique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie se transmettant sur un mode autosomique récessif, elle est donc plus fréquente en cas de consanguinité. Elle ne se manifeste que lorsque le fœtus est porteur des deux gènes.
 Le risque de récurrence est donc de 25 % en cas de grossesse chez un couple ayant déjà un enfant atteint par cette pathologie.
@@ -694,7 +718,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Ellis-Van_Creveld</t>
+          <t>Syndrome_d'Ellis-Van_Creveld</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -712,7 +736,9 @@
           <t>Mode de transmission</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Transmission autosomique récessive</t>
         </is>
@@ -724,7 +750,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Ellis-Van_Creveld</t>
+          <t>Syndrome_d'Ellis-Van_Creveld</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -742,11 +768,13 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">(fr) Syndrome d'Ellis-Van Creveld
 (fr) Site sur les maladies rares
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:225500 [1]
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:225500 
  Portail de la médecine                     </t>
         </is>
       </c>
